--- a/results/FrequencyTables/26538064_LTR-Ra.xlsx
+++ b/results/FrequencyTables/26538064_LTR-Ra.xlsx
@@ -465,22 +465,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.981418918918919</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0118243243243243</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -489,49 +489,49 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0126689189189189</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.997466216216216</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.990709459459459</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0177364864864865</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0152027027027027</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.995777027027027</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.980574324324324</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00591216216216216</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.994932432432432</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.983952702702703</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.993243243243243</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0135135135135135</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.983952702702703</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.980574324324324</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.983108108108108</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0135135135135135</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.995777027027027</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00253378378378378</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.993243243243243</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.981418918918919</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.97972972972973</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00253378378378378</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0126689189189189</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0135135135135135</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0135135135135135</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.996621621621622</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00422297297297297</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0118243243243243</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00253378378378378</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="M4">
-        <v>0.98989898989899</v>
+        <v>0.989864864864865</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0126689189189189</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00253378378378378</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0143581081081081</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00760135135135135</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.97972972972973</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.986486486486487</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -708,52 +708,52 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.986486486486487</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.983952702702703</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="M5">
-        <v>0.0101010101010101</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00591216216216216</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.976351351351351</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00337837837837838</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.992398648648649</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00168918918918919</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000844594594594595</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00506756756756757</v>
       </c>
     </row>
   </sheetData>
